--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3607.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3607.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.301292611230648</v>
+        <v>1.259293079376221</v>
       </c>
       <c r="B1">
-        <v>2.400920425074419</v>
+        <v>2.510208368301392</v>
       </c>
       <c r="C1">
-        <v>3.729389657092069</v>
+        <v>4.730030059814453</v>
       </c>
       <c r="D1">
-        <v>2.823340213407125</v>
+        <v>2.01446533203125</v>
       </c>
       <c r="E1">
-        <v>0.9025589465136921</v>
+        <v>1.151864886283875</v>
       </c>
     </row>
   </sheetData>
